--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Strathom.Fall.102320.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Strathom.Fall.102320.xlsx_with_dialog_acts.xlsx
@@ -597,12 +597,12 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -847,12 +847,12 @@
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1057,12 +1057,12 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1519,12 +1519,12 @@
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1561,12 +1561,12 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1603,12 +1603,12 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1771,12 +1771,12 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2359,12 +2359,12 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2735,12 +2735,12 @@
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2861,12 +2861,12 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2945,12 +2945,12 @@
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3493,12 +3493,12 @@
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3787,12 +3787,12 @@
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4081,12 +4081,12 @@
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4165,12 +4165,12 @@
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4207,12 +4207,12 @@
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4249,12 +4249,12 @@
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4375,12 +4375,12 @@
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4627,12 +4627,12 @@
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4887,12 +4887,12 @@
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5055,12 +5055,12 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5139,12 +5139,12 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5307,12 +5307,12 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5517,12 +5517,12 @@
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6479,12 +6479,12 @@
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6563,12 +6563,12 @@
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7067,12 +7067,12 @@
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7317,12 +7317,12 @@
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7401,12 +7401,12 @@
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8025,12 +8025,12 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8485,12 +8485,12 @@
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8527,12 +8527,12 @@
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9355,12 +9355,12 @@
       <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9775,12 +9775,12 @@
       <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9943,12 +9943,12 @@
       <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9985,12 +9985,12 @@
       <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10819,12 +10819,12 @@
       <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10945,12 +10945,12 @@
       <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10987,12 +10987,12 @@
       <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11029,12 +11029,12 @@
       <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11239,12 +11239,12 @@
       <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11323,12 +11323,12 @@
       <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11615,12 +11615,12 @@
       <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11657,12 +11657,12 @@
       <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11699,12 +11699,12 @@
       <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11741,12 +11741,12 @@
       <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12329,12 +12329,12 @@
       <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12581,12 +12581,12 @@
       <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -12749,12 +12749,12 @@
       <c r="H294" t="inlineStr"/>
       <c r="I294" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12833,12 +12833,12 @@
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12959,12 +12959,12 @@
       <c r="H299" t="inlineStr"/>
       <c r="I299" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13001,12 +13001,12 @@
       <c r="H300" t="inlineStr"/>
       <c r="I300" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13043,12 +13043,12 @@
       <c r="H301" t="inlineStr"/>
       <c r="I301" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13253,12 +13253,12 @@
       <c r="H306" t="inlineStr"/>
       <c r="I306" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13547,12 +13547,12 @@
       <c r="H313" t="inlineStr"/>
       <c r="I313" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13757,12 +13757,12 @@
       <c r="H318" t="inlineStr"/>
       <c r="I318" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14013,12 +14013,12 @@
       <c r="H324" t="inlineStr"/>
       <c r="I324" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14349,12 +14349,12 @@
       <c r="H332" t="inlineStr"/>
       <c r="I332" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14601,12 +14601,12 @@
       <c r="H338" t="inlineStr"/>
       <c r="I338" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14643,12 +14643,12 @@
       <c r="H339" t="inlineStr"/>
       <c r="I339" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14811,12 +14811,12 @@
       <c r="H343" t="inlineStr"/>
       <c r="I343" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -15945,12 +15945,12 @@
       <c r="H370" t="inlineStr"/>
       <c r="I370" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -15987,12 +15987,12 @@
       <c r="H371" t="inlineStr"/>
       <c r="I371" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16113,12 +16113,12 @@
       <c r="H374" t="inlineStr"/>
       <c r="I374" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16239,12 +16239,12 @@
       <c r="H377" t="inlineStr"/>
       <c r="I377" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J377" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16661,12 +16661,12 @@
       <c r="H387" t="inlineStr"/>
       <c r="I387" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -17119,12 +17119,12 @@
       <c r="H398" t="inlineStr"/>
       <c r="I398" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -17791,12 +17791,12 @@
       <c r="H414" t="inlineStr"/>
       <c r="I414" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17917,12 +17917,12 @@
       <c r="H417" t="inlineStr"/>
       <c r="I417" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18085,12 +18085,12 @@
       <c r="H421" t="inlineStr"/>
       <c r="I421" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18127,12 +18127,12 @@
       <c r="H422" t="inlineStr"/>
       <c r="I422" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18421,12 +18421,12 @@
       <c r="H429" t="inlineStr"/>
       <c r="I429" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19181,12 +19181,12 @@
       <c r="H447" t="inlineStr"/>
       <c r="I447" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J447" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19265,12 +19265,12 @@
       <c r="H449" t="inlineStr"/>
       <c r="I449" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J449" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19475,12 +19475,12 @@
       <c r="H454" t="inlineStr"/>
       <c r="I454" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J454" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -19559,12 +19559,12 @@
       <c r="H456" t="inlineStr"/>
       <c r="I456" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19643,12 +19643,12 @@
       <c r="H458" t="inlineStr"/>
       <c r="I458" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20063,12 +20063,12 @@
       <c r="H468" t="inlineStr"/>
       <c r="I468" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20231,12 +20231,12 @@
       <c r="H472" t="inlineStr"/>
       <c r="I472" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -20273,12 +20273,12 @@
       <c r="H473" t="inlineStr"/>
       <c r="I473" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J473" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -20483,12 +20483,12 @@
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J478" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -20865,12 +20865,12 @@
       <c r="H487" t="inlineStr"/>
       <c r="I487" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J487" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21201,12 +21201,12 @@
       <c r="H495" t="inlineStr"/>
       <c r="I495" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J495" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -21411,12 +21411,12 @@
       <c r="H500" t="inlineStr"/>
       <c r="I500" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22541,12 +22541,12 @@
       <c r="H527" t="inlineStr"/>
       <c r="I527" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J527" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22583,12 +22583,12 @@
       <c r="H528" t="inlineStr"/>
       <c r="I528" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J528" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22961,12 +22961,12 @@
       <c r="H537" t="inlineStr"/>
       <c r="I537" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J537" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23171,12 +23171,12 @@
       <c r="H542" t="inlineStr"/>
       <c r="I542" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J542" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24427,12 +24427,12 @@
       <c r="H572" t="inlineStr"/>
       <c r="I572" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J572" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -24553,12 +24553,12 @@
       <c r="H575" t="inlineStr"/>
       <c r="I575" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J575" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24973,12 +24973,12 @@
       <c r="H585" t="inlineStr"/>
       <c r="I585" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J585" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -25015,12 +25015,12 @@
       <c r="H586" t="inlineStr"/>
       <c r="I586" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J586" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -25141,12 +25141,12 @@
       </c>
       <c r="I589" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J589" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -25475,12 +25475,12 @@
       <c r="H597" t="inlineStr"/>
       <c r="I597" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J597" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -25895,12 +25895,12 @@
       <c r="H607" t="inlineStr"/>
       <c r="I607" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J607" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -25937,12 +25937,12 @@
       <c r="H608" t="inlineStr"/>
       <c r="I608" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J608" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -25979,12 +25979,12 @@
       <c r="H609" t="inlineStr"/>
       <c r="I609" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J609" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -26021,12 +26021,12 @@
       <c r="H610" t="inlineStr"/>
       <c r="I610" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J610" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -26441,12 +26441,12 @@
       <c r="H620" t="inlineStr"/>
       <c r="I620" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J620" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -26483,12 +26483,12 @@
       <c r="H621" t="inlineStr"/>
       <c r="I621" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J621" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -26651,12 +26651,12 @@
       <c r="H625" t="inlineStr"/>
       <c r="I625" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J625" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -27575,12 +27575,12 @@
       <c r="H647" t="inlineStr"/>
       <c r="I647" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J647" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -27743,12 +27743,12 @@
       <c r="H651" t="inlineStr"/>
       <c r="I651" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J651" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -27785,12 +27785,12 @@
       <c r="H652" t="inlineStr"/>
       <c r="I652" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J652" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -28461,12 +28461,12 @@
       <c r="H668" t="inlineStr"/>
       <c r="I668" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J668" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -28713,12 +28713,12 @@
       <c r="H674" t="inlineStr"/>
       <c r="I674" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J674" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -29347,12 +29347,12 @@
       <c r="H689" t="inlineStr"/>
       <c r="I689" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J689" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -29515,12 +29515,12 @@
       <c r="H693" t="inlineStr"/>
       <c r="I693" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J693" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -31195,12 +31195,12 @@
       <c r="H733" t="inlineStr"/>
       <c r="I733" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J733" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -31485,12 +31485,12 @@
       <c r="H740" t="inlineStr"/>
       <c r="I740" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J740" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -31531,12 +31531,12 @@
       </c>
       <c r="I741" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J741" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -31573,12 +31573,12 @@
       <c r="H742" t="inlineStr"/>
       <c r="I742" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J742" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -31741,12 +31741,12 @@
       <c r="H746" t="inlineStr"/>
       <c r="I746" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J746" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -31867,12 +31867,12 @@
       <c r="H749" t="inlineStr"/>
       <c r="I749" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J749" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -31951,12 +31951,12 @@
       <c r="H751" t="inlineStr"/>
       <c r="I751" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J751" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -32455,12 +32455,12 @@
       <c r="H763" t="inlineStr"/>
       <c r="I763" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J763" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -32497,12 +32497,12 @@
       <c r="H764" t="inlineStr"/>
       <c r="I764" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J764" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -32875,12 +32875,12 @@
       <c r="H773" t="inlineStr"/>
       <c r="I773" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J773" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -32917,12 +32917,12 @@
       <c r="H774" t="inlineStr"/>
       <c r="I774" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J774" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -32959,12 +32959,12 @@
       <c r="H775" t="inlineStr"/>
       <c r="I775" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J775" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -33299,12 +33299,12 @@
       <c r="H783" t="inlineStr"/>
       <c r="I783" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J783" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -34219,12 +34219,12 @@
       </c>
       <c r="I805" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J805" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -34811,12 +34811,12 @@
       <c r="H819" t="inlineStr"/>
       <c r="I819" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J819" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -34895,12 +34895,12 @@
       <c r="H821" t="inlineStr"/>
       <c r="I821" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J821" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -35189,12 +35189,12 @@
       <c r="H828" t="inlineStr"/>
       <c r="I828" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J828" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>

--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Strathom.Fall.102320.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Strathom.Fall.102320.xlsx_with_dialog_acts.xlsx
@@ -40,7 +40,7 @@
     <t xml:space="preserve">Teacher Tag</t>
   </si>
   <si>
-    <t xml:space="preserve">Speaker Tag</t>
+    <t xml:space="preserve">Student Tag</t>
   </si>
   <si>
     <t xml:space="preserve">DAMSLTag</t>
@@ -3072,10 +3072,13 @@
   <dimension ref="A1:J835"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="29.44"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
